--- a/tabela/dados_tratados.xlsx
+++ b/tabela/dados_tratados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,20 +446,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>tipo.dado</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>pub.pre</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pub.ead</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>priv.pre</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>priv.ead</t>
         </is>

--- a/tabela/dados_tratados.xlsx
+++ b/tabela/dados_tratados.xlsx
@@ -7,7 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Cursos" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Matriculas" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Concluintes" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,28 +448,3485 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>tipo.dado</t>
+          <t>pub_pre</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>pub.pre</t>
+          <t>pub_ead</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>pub.ead</t>
+          <t>priv_pre</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>priv.pre</t>
+          <t>priv_ead</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2009</v>
+      </c>
+      <c r="C2" t="n">
+        <v>269</v>
+      </c>
+      <c r="D2" t="n">
+        <v>31</v>
+      </c>
+      <c r="E2" t="n">
+        <v>264</v>
+      </c>
+      <c r="F2" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2009</v>
+      </c>
+      <c r="C3" t="n">
+        <v>201</v>
+      </c>
+      <c r="D3" t="n">
+        <v>38</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1599</v>
+      </c>
+      <c r="F3" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2009</v>
+      </c>
+      <c r="C4" t="n">
+        <v>437</v>
+      </c>
+      <c r="D4" t="n">
+        <v>37</v>
+      </c>
+      <c r="E4" t="n">
+        <v>928</v>
+      </c>
+      <c r="F4" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2009</v>
+      </c>
+      <c r="C5" t="n">
+        <v>201</v>
+      </c>
+      <c r="D5" t="n">
+        <v>26</v>
+      </c>
+      <c r="E5" t="n">
+        <v>198</v>
+      </c>
+      <c r="F5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C6" t="n">
+        <v>355</v>
+      </c>
+      <c r="D6" t="n">
+        <v>38</v>
+      </c>
+      <c r="E6" t="n">
+        <v>254</v>
+      </c>
+      <c r="F6" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C7" t="n">
+        <v>259</v>
+      </c>
+      <c r="D7" t="n">
+        <v>38</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2110</v>
+      </c>
+      <c r="F7" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C8" t="n">
+        <v>566</v>
+      </c>
+      <c r="D8" t="n">
+        <v>63</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1219</v>
+      </c>
+      <c r="F8" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C9" t="n">
+        <v>301</v>
+      </c>
+      <c r="D9" t="n">
+        <v>41</v>
+      </c>
+      <c r="E9" t="n">
+        <v>296</v>
+      </c>
+      <c r="F9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2011</v>
+      </c>
+      <c r="C10" t="n">
+        <v>372</v>
+      </c>
+      <c r="D10" t="n">
+        <v>46</v>
+      </c>
+      <c r="E10" t="n">
+        <v>245</v>
+      </c>
+      <c r="F10" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2011</v>
+      </c>
+      <c r="C11" t="n">
+        <v>278</v>
+      </c>
+      <c r="D11" t="n">
+        <v>38</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1920</v>
+      </c>
+      <c r="F11" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2011</v>
+      </c>
+      <c r="C12" t="n">
+        <v>547</v>
+      </c>
+      <c r="D12" t="n">
+        <v>64</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1137</v>
+      </c>
+      <c r="F12" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2011</v>
+      </c>
+      <c r="C13" t="n">
+        <v>310</v>
+      </c>
+      <c r="D13" t="n">
+        <v>45</v>
+      </c>
+      <c r="E13" t="n">
+        <v>307</v>
+      </c>
+      <c r="F13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2012</v>
+      </c>
+      <c r="C14" t="n">
+        <v>391</v>
+      </c>
+      <c r="D14" t="n">
+        <v>47</v>
+      </c>
+      <c r="E14" t="n">
+        <v>230</v>
+      </c>
+      <c r="F14" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2012</v>
+      </c>
+      <c r="C15" t="n">
+        <v>304</v>
+      </c>
+      <c r="D15" t="n">
+        <v>34</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1827</v>
+      </c>
+      <c r="F15" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2012</v>
+      </c>
+      <c r="C16" t="n">
+        <v>658</v>
+      </c>
+      <c r="D16" t="n">
+        <v>57</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1066</v>
+      </c>
+      <c r="F16" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2012</v>
+      </c>
+      <c r="C17" t="n">
+        <v>351</v>
+      </c>
+      <c r="D17" t="n">
+        <v>44</v>
+      </c>
+      <c r="E17" t="n">
+        <v>302</v>
+      </c>
+      <c r="F17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2013</v>
+      </c>
+      <c r="C18" t="n">
+        <v>376</v>
+      </c>
+      <c r="D18" t="n">
+        <v>47</v>
+      </c>
+      <c r="E18" t="n">
+        <v>216</v>
+      </c>
+      <c r="F18" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2013</v>
+      </c>
+      <c r="C19" t="n">
+        <v>297</v>
+      </c>
+      <c r="D19" t="n">
+        <v>29</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1734</v>
+      </c>
+      <c r="F19" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2013</v>
+      </c>
+      <c r="C20" t="n">
+        <v>611</v>
+      </c>
+      <c r="D20" t="n">
+        <v>56</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1026</v>
+      </c>
+      <c r="F20" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>3</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2013</v>
+      </c>
+      <c r="C21" t="n">
+        <v>347</v>
+      </c>
+      <c r="D21" t="n">
+        <v>41</v>
+      </c>
+      <c r="E21" t="n">
+        <v>290</v>
+      </c>
+      <c r="F21" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2014</v>
+      </c>
+      <c r="C22" t="n">
+        <v>375</v>
+      </c>
+      <c r="D22" t="n">
+        <v>37</v>
+      </c>
+      <c r="E22" t="n">
+        <v>197</v>
+      </c>
+      <c r="F22" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2014</v>
+      </c>
+      <c r="C23" t="n">
+        <v>295</v>
+      </c>
+      <c r="D23" t="n">
+        <v>23</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1726</v>
+      </c>
+      <c r="F23" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2014</v>
+      </c>
+      <c r="C24" t="n">
+        <v>596</v>
+      </c>
+      <c r="D24" t="n">
+        <v>47</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1022</v>
+      </c>
+      <c r="F24" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>3</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2014</v>
+      </c>
+      <c r="C25" t="n">
+        <v>362</v>
+      </c>
+      <c r="D25" t="n">
+        <v>29</v>
+      </c>
+      <c r="E25" t="n">
+        <v>275</v>
+      </c>
+      <c r="F25" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2015</v>
+      </c>
+      <c r="C26" t="n">
+        <v>403</v>
+      </c>
+      <c r="D26" t="n">
+        <v>39</v>
+      </c>
+      <c r="E26" t="n">
+        <v>181</v>
+      </c>
+      <c r="F26" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2015</v>
+      </c>
+      <c r="C27" t="n">
+        <v>278</v>
+      </c>
+      <c r="D27" t="n">
+        <v>18</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1744</v>
+      </c>
+      <c r="F27" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2015</v>
+      </c>
+      <c r="C28" t="n">
+        <v>515</v>
+      </c>
+      <c r="D28" t="n">
+        <v>46</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1033</v>
+      </c>
+      <c r="F28" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2015</v>
+      </c>
+      <c r="C29" t="n">
+        <v>360</v>
+      </c>
+      <c r="D29" t="n">
+        <v>29</v>
+      </c>
+      <c r="E29" t="n">
+        <v>272</v>
+      </c>
+      <c r="F29" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C30" t="n">
+        <v>375</v>
+      </c>
+      <c r="D30" t="n">
+        <v>39</v>
+      </c>
+      <c r="E30" t="n">
+        <v>173</v>
+      </c>
+      <c r="F30" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C31" t="n">
+        <v>277</v>
+      </c>
+      <c r="D31" t="n">
+        <v>17</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1754</v>
+      </c>
+      <c r="F31" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>2</v>
+      </c>
+      <c r="B32" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C32" t="n">
+        <v>453</v>
+      </c>
+      <c r="D32" t="n">
+        <v>49</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1053</v>
+      </c>
+      <c r="F32" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>3</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C33" t="n">
+        <v>341</v>
+      </c>
+      <c r="D33" t="n">
+        <v>30</v>
+      </c>
+      <c r="E33" t="n">
+        <v>267</v>
+      </c>
+      <c r="F33" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0</v>
+      </c>
+      <c r="B34" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C34" t="n">
+        <v>358</v>
+      </c>
+      <c r="D34" t="n">
+        <v>41</v>
+      </c>
+      <c r="E34" t="n">
+        <v>160</v>
+      </c>
+      <c r="F34" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C35" t="n">
+        <v>283</v>
+      </c>
+      <c r="D35" t="n">
+        <v>14</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1767</v>
+      </c>
+      <c r="F35" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>2</v>
+      </c>
+      <c r="B36" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C36" t="n">
+        <v>407</v>
+      </c>
+      <c r="D36" t="n">
+        <v>51</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1103</v>
+      </c>
+      <c r="F36" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>3</v>
+      </c>
+      <c r="B37" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C37" t="n">
+        <v>342</v>
+      </c>
+      <c r="D37" t="n">
+        <v>31</v>
+      </c>
+      <c r="E37" t="n">
+        <v>247</v>
+      </c>
+      <c r="F37" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0</v>
+      </c>
+      <c r="B38" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C38" t="n">
+        <v>350</v>
+      </c>
+      <c r="D38" t="n">
+        <v>47</v>
+      </c>
+      <c r="E38" t="n">
+        <v>154</v>
+      </c>
+      <c r="F38" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1</v>
+      </c>
+      <c r="B39" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C39" t="n">
+        <v>284</v>
+      </c>
+      <c r="D39" t="n">
+        <v>11</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1802</v>
+      </c>
+      <c r="F39" t="n">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>2</v>
+      </c>
+      <c r="B40" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C40" t="n">
+        <v>386</v>
+      </c>
+      <c r="D40" t="n">
+        <v>57</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1109</v>
+      </c>
+      <c r="F40" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>3</v>
+      </c>
+      <c r="B41" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C41" t="n">
+        <v>326</v>
+      </c>
+      <c r="D41" t="n">
+        <v>32</v>
+      </c>
+      <c r="E41" t="n">
+        <v>244</v>
+      </c>
+      <c r="F41" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0</v>
+      </c>
+      <c r="B42" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C42" t="n">
+        <v>355</v>
+      </c>
+      <c r="D42" t="n">
+        <v>48</v>
+      </c>
+      <c r="E42" t="n">
+        <v>143</v>
+      </c>
+      <c r="F42" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C43" t="n">
+        <v>292</v>
+      </c>
+      <c r="D43" t="n">
+        <v>11</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1805</v>
+      </c>
+      <c r="F43" t="n">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>2</v>
+      </c>
+      <c r="B44" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C44" t="n">
+        <v>395</v>
+      </c>
+      <c r="D44" t="n">
+        <v>65</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1127</v>
+      </c>
+      <c r="F44" t="n">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>3</v>
+      </c>
+      <c r="B45" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C45" t="n">
+        <v>333</v>
+      </c>
+      <c r="D45" t="n">
+        <v>33</v>
+      </c>
+      <c r="E45" t="n">
+        <v>223</v>
+      </c>
+      <c r="F45" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0</v>
+      </c>
+      <c r="B46" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C46" t="n">
+        <v>351</v>
+      </c>
+      <c r="D46" t="n">
+        <v>46</v>
+      </c>
+      <c r="E46" t="n">
+        <v>126</v>
+      </c>
+      <c r="F46" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1</v>
+      </c>
+      <c r="B47" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C47" t="n">
+        <v>290</v>
+      </c>
+      <c r="D47" t="n">
+        <v>11</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1711</v>
+      </c>
+      <c r="F47" t="n">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>2</v>
+      </c>
+      <c r="B48" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C48" t="n">
+        <v>425</v>
+      </c>
+      <c r="D48" t="n">
+        <v>69</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1083</v>
+      </c>
+      <c r="F48" t="n">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>3</v>
+      </c>
+      <c r="B49" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C49" t="n">
+        <v>330</v>
+      </c>
+      <c r="D49" t="n">
+        <v>33</v>
+      </c>
+      <c r="E49" t="n">
+        <v>206</v>
+      </c>
+      <c r="F49" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0</v>
+      </c>
+      <c r="B50" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C50" t="n">
+        <v>353</v>
+      </c>
+      <c r="D50" t="n">
+        <v>50</v>
+      </c>
+      <c r="E50" t="n">
+        <v>110</v>
+      </c>
+      <c r="F50" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1</v>
+      </c>
+      <c r="B51" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C51" t="n">
+        <v>298</v>
+      </c>
+      <c r="D51" t="n">
+        <v>12</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1683</v>
+      </c>
+      <c r="F51" t="n">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>2</v>
+      </c>
+      <c r="B52" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C52" t="n">
+        <v>402</v>
+      </c>
+      <c r="D52" t="n">
+        <v>65</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1056</v>
+      </c>
+      <c r="F52" t="n">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>3</v>
+      </c>
+      <c r="B53" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C53" t="n">
+        <v>334</v>
+      </c>
+      <c r="D53" t="n">
+        <v>35</v>
+      </c>
+      <c r="E53" t="n">
+        <v>188</v>
+      </c>
+      <c r="F53" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0</v>
+      </c>
+      <c r="B54" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C54" t="n">
+        <v>359</v>
+      </c>
+      <c r="D54" t="n">
+        <v>49</v>
+      </c>
+      <c r="E54" t="n">
+        <v>102</v>
+      </c>
+      <c r="F54" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1</v>
+      </c>
+      <c r="B55" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C55" t="n">
+        <v>306</v>
+      </c>
+      <c r="D55" t="n">
+        <v>14</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1623</v>
+      </c>
+      <c r="F55" t="n">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>2</v>
+      </c>
+      <c r="B56" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C56" t="n">
+        <v>404</v>
+      </c>
+      <c r="D56" t="n">
+        <v>69</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1029</v>
+      </c>
+      <c r="F56" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>3</v>
+      </c>
+      <c r="B57" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C57" t="n">
+        <v>332</v>
+      </c>
+      <c r="D57" t="n">
+        <v>35</v>
+      </c>
+      <c r="E57" t="n">
+        <v>170</v>
+      </c>
+      <c r="F57" t="n">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>priv.ead</t>
+          <t>curso</t>
         </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ano</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pub_pre</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pub_ead</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>priv_pre</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>priv_ead</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2009</v>
+      </c>
+      <c r="C2" t="n">
+        <v>31186</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14039</v>
+      </c>
+      <c r="E2" t="n">
+        <v>19367</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6781</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2009</v>
+      </c>
+      <c r="C3" t="n">
+        <v>56881</v>
+      </c>
+      <c r="D3" t="n">
+        <v>24772</v>
+      </c>
+      <c r="E3" t="n">
+        <v>547700</v>
+      </c>
+      <c r="F3" t="n">
+        <v>81425</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2009</v>
+      </c>
+      <c r="C4" t="n">
+        <v>80758</v>
+      </c>
+      <c r="D4" t="n">
+        <v>23944</v>
+      </c>
+      <c r="E4" t="n">
+        <v>166949</v>
+      </c>
+      <c r="F4" t="n">
+        <v>241355</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2009</v>
+      </c>
+      <c r="C5" t="n">
+        <v>25223</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7261</v>
+      </c>
+      <c r="E5" t="n">
+        <v>24769</v>
+      </c>
+      <c r="F5" t="n">
+        <v>11737</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C6" t="n">
+        <v>42442</v>
+      </c>
+      <c r="D6" t="n">
+        <v>15041</v>
+      </c>
+      <c r="E6" t="n">
+        <v>17022</v>
+      </c>
+      <c r="F6" t="n">
+        <v>8287</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C7" t="n">
+        <v>72195</v>
+      </c>
+      <c r="D7" t="n">
+        <v>21592</v>
+      </c>
+      <c r="E7" t="n">
+        <v>633495</v>
+      </c>
+      <c r="F7" t="n">
+        <v>106594</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C8" t="n">
+        <v>93886</v>
+      </c>
+      <c r="D8" t="n">
+        <v>33569</v>
+      </c>
+      <c r="E8" t="n">
+        <v>203695</v>
+      </c>
+      <c r="F8" t="n">
+        <v>239679</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C9" t="n">
+        <v>40388</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8612</v>
+      </c>
+      <c r="E9" t="n">
+        <v>37430</v>
+      </c>
+      <c r="F9" t="n">
+        <v>10475</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2011</v>
+      </c>
+      <c r="C10" t="n">
+        <v>44568</v>
+      </c>
+      <c r="D10" t="n">
+        <v>14378</v>
+      </c>
+      <c r="E10" t="n">
+        <v>15536</v>
+      </c>
+      <c r="F10" t="n">
+        <v>7957</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2011</v>
+      </c>
+      <c r="C11" t="n">
+        <v>77224</v>
+      </c>
+      <c r="D11" t="n">
+        <v>18907</v>
+      </c>
+      <c r="E11" t="n">
+        <v>625763</v>
+      </c>
+      <c r="F11" t="n">
+        <v>121303</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2011</v>
+      </c>
+      <c r="C12" t="n">
+        <v>97933</v>
+      </c>
+      <c r="D12" t="n">
+        <v>34332</v>
+      </c>
+      <c r="E12" t="n">
+        <v>207170</v>
+      </c>
+      <c r="F12" t="n">
+        <v>247216</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2011</v>
+      </c>
+      <c r="C13" t="n">
+        <v>43366</v>
+      </c>
+      <c r="D13" t="n">
+        <v>8343</v>
+      </c>
+      <c r="E13" t="n">
+        <v>32679</v>
+      </c>
+      <c r="F13" t="n">
+        <v>7569</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2012</v>
+      </c>
+      <c r="C14" t="n">
+        <v>44330</v>
+      </c>
+      <c r="D14" t="n">
+        <v>14780</v>
+      </c>
+      <c r="E14" t="n">
+        <v>13886</v>
+      </c>
+      <c r="F14" t="n">
+        <v>8322</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2012</v>
+      </c>
+      <c r="C15" t="n">
+        <v>84060</v>
+      </c>
+      <c r="D15" t="n">
+        <v>15525</v>
+      </c>
+      <c r="E15" t="n">
+        <v>584925</v>
+      </c>
+      <c r="F15" t="n">
+        <v>148532</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2012</v>
+      </c>
+      <c r="C16" t="n">
+        <v>104323</v>
+      </c>
+      <c r="D16" t="n">
+        <v>37123</v>
+      </c>
+      <c r="E16" t="n">
+        <v>202973</v>
+      </c>
+      <c r="F16" t="n">
+        <v>258579</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2012</v>
+      </c>
+      <c r="C17" t="n">
+        <v>44628</v>
+      </c>
+      <c r="D17" t="n">
+        <v>8986</v>
+      </c>
+      <c r="E17" t="n">
+        <v>27045</v>
+      </c>
+      <c r="F17" t="n">
+        <v>7056</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2013</v>
+      </c>
+      <c r="C18" t="n">
+        <v>44839</v>
+      </c>
+      <c r="D18" t="n">
+        <v>13102</v>
+      </c>
+      <c r="E18" t="n">
+        <v>12702</v>
+      </c>
+      <c r="F18" t="n">
+        <v>10248</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2013</v>
+      </c>
+      <c r="C19" t="n">
+        <v>85121</v>
+      </c>
+      <c r="D19" t="n">
+        <v>10492</v>
+      </c>
+      <c r="E19" t="n">
+        <v>557927</v>
+      </c>
+      <c r="F19" t="n">
+        <v>146574</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2013</v>
+      </c>
+      <c r="C20" t="n">
+        <v>106429</v>
+      </c>
+      <c r="D20" t="n">
+        <v>32312</v>
+      </c>
+      <c r="E20" t="n">
+        <v>213142</v>
+      </c>
+      <c r="F20" t="n">
+        <v>262952</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>3</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2013</v>
+      </c>
+      <c r="C21" t="n">
+        <v>45495</v>
+      </c>
+      <c r="D21" t="n">
+        <v>8484</v>
+      </c>
+      <c r="E21" t="n">
+        <v>23934</v>
+      </c>
+      <c r="F21" t="n">
+        <v>8367</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2014</v>
+      </c>
+      <c r="C22" t="n">
+        <v>45493</v>
+      </c>
+      <c r="D22" t="n">
+        <v>12047</v>
+      </c>
+      <c r="E22" t="n">
+        <v>11610</v>
+      </c>
+      <c r="F22" t="n">
+        <v>15372</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2014</v>
+      </c>
+      <c r="C23" t="n">
+        <v>84550</v>
+      </c>
+      <c r="D23" t="n">
+        <v>8023</v>
+      </c>
+      <c r="E23" t="n">
+        <v>538823</v>
+      </c>
+      <c r="F23" t="n">
+        <v>170540</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2014</v>
+      </c>
+      <c r="C24" t="n">
+        <v>105924</v>
+      </c>
+      <c r="D24" t="n">
+        <v>30329</v>
+      </c>
+      <c r="E24" t="n">
+        <v>214770</v>
+      </c>
+      <c r="F24" t="n">
+        <v>301739</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>3</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2014</v>
+      </c>
+      <c r="C25" t="n">
+        <v>47289</v>
+      </c>
+      <c r="D25" t="n">
+        <v>8671</v>
+      </c>
+      <c r="E25" t="n">
+        <v>21874</v>
+      </c>
+      <c r="F25" t="n">
+        <v>10460</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2015</v>
+      </c>
+      <c r="C26" t="n">
+        <v>43443</v>
+      </c>
+      <c r="D26" t="n">
+        <v>11165</v>
+      </c>
+      <c r="E26" t="n">
+        <v>10727</v>
+      </c>
+      <c r="F26" t="n">
+        <v>17402</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2015</v>
+      </c>
+      <c r="C27" t="n">
+        <v>79202</v>
+      </c>
+      <c r="D27" t="n">
+        <v>7631</v>
+      </c>
+      <c r="E27" t="n">
+        <v>506407</v>
+      </c>
+      <c r="F27" t="n">
+        <v>173619</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2015</v>
+      </c>
+      <c r="C28" t="n">
+        <v>101910</v>
+      </c>
+      <c r="D28" t="n">
+        <v>25972</v>
+      </c>
+      <c r="E28" t="n">
+        <v>211408</v>
+      </c>
+      <c r="F28" t="n">
+        <v>316523</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2015</v>
+      </c>
+      <c r="C29" t="n">
+        <v>46906</v>
+      </c>
+      <c r="D29" t="n">
+        <v>7051</v>
+      </c>
+      <c r="E29" t="n">
+        <v>20223</v>
+      </c>
+      <c r="F29" t="n">
+        <v>9134</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C30" t="n">
+        <v>44108</v>
+      </c>
+      <c r="D30" t="n">
+        <v>9627</v>
+      </c>
+      <c r="E30" t="n">
+        <v>9026</v>
+      </c>
+      <c r="F30" t="n">
+        <v>22641</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C31" t="n">
+        <v>77806</v>
+      </c>
+      <c r="D31" t="n">
+        <v>7879</v>
+      </c>
+      <c r="E31" t="n">
+        <v>447139</v>
+      </c>
+      <c r="F31" t="n">
+        <v>178160</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>2</v>
+      </c>
+      <c r="B32" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C32" t="n">
+        <v>100557</v>
+      </c>
+      <c r="D32" t="n">
+        <v>25708</v>
+      </c>
+      <c r="E32" t="n">
+        <v>198991</v>
+      </c>
+      <c r="F32" t="n">
+        <v>354030</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>3</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C33" t="n">
+        <v>47618</v>
+      </c>
+      <c r="D33" t="n">
+        <v>7252</v>
+      </c>
+      <c r="E33" t="n">
+        <v>17042</v>
+      </c>
+      <c r="F33" t="n">
+        <v>10170</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0</v>
+      </c>
+      <c r="B34" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C34" t="n">
+        <v>44654</v>
+      </c>
+      <c r="D34" t="n">
+        <v>16467</v>
+      </c>
+      <c r="E34" t="n">
+        <v>7955</v>
+      </c>
+      <c r="F34" t="n">
+        <v>25928</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C35" t="n">
+        <v>76706</v>
+      </c>
+      <c r="D35" t="n">
+        <v>8216</v>
+      </c>
+      <c r="E35" t="n">
+        <v>405062</v>
+      </c>
+      <c r="F35" t="n">
+        <v>192571</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>2</v>
+      </c>
+      <c r="B36" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C36" t="n">
+        <v>94781</v>
+      </c>
+      <c r="D36" t="n">
+        <v>29372</v>
+      </c>
+      <c r="E36" t="n">
+        <v>189449</v>
+      </c>
+      <c r="F36" t="n">
+        <v>400743</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>3</v>
+      </c>
+      <c r="B37" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C37" t="n">
+        <v>48381</v>
+      </c>
+      <c r="D37" t="n">
+        <v>9493</v>
+      </c>
+      <c r="E37" t="n">
+        <v>14800</v>
+      </c>
+      <c r="F37" t="n">
+        <v>11005</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0</v>
+      </c>
+      <c r="B38" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C38" t="n">
+        <v>45838</v>
+      </c>
+      <c r="D38" t="n">
+        <v>16570</v>
+      </c>
+      <c r="E38" t="n">
+        <v>6400</v>
+      </c>
+      <c r="F38" t="n">
+        <v>27559</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1</v>
+      </c>
+      <c r="B39" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C39" t="n">
+        <v>75954</v>
+      </c>
+      <c r="D39" t="n">
+        <v>7469</v>
+      </c>
+      <c r="E39" t="n">
+        <v>357287</v>
+      </c>
+      <c r="F39" t="n">
+        <v>214133</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>2</v>
+      </c>
+      <c r="B40" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C40" t="n">
+        <v>93643</v>
+      </c>
+      <c r="D40" t="n">
+        <v>37475</v>
+      </c>
+      <c r="E40" t="n">
+        <v>176144</v>
+      </c>
+      <c r="F40" t="n">
+        <v>440628</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>3</v>
+      </c>
+      <c r="B41" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C41" t="n">
+        <v>47876</v>
+      </c>
+      <c r="D41" t="n">
+        <v>9136</v>
+      </c>
+      <c r="E41" t="n">
+        <v>12031</v>
+      </c>
+      <c r="F41" t="n">
+        <v>11794</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0</v>
+      </c>
+      <c r="B42" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C42" t="n">
+        <v>46221</v>
+      </c>
+      <c r="D42" t="n">
+        <v>14424</v>
+      </c>
+      <c r="E42" t="n">
+        <v>5023</v>
+      </c>
+      <c r="F42" t="n">
+        <v>30121</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C43" t="n">
+        <v>76849</v>
+      </c>
+      <c r="D43" t="n">
+        <v>7790</v>
+      </c>
+      <c r="E43" t="n">
+        <v>309643</v>
+      </c>
+      <c r="F43" t="n">
+        <v>251495</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>2</v>
+      </c>
+      <c r="B44" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C44" t="n">
+        <v>92809</v>
+      </c>
+      <c r="D44" t="n">
+        <v>36804</v>
+      </c>
+      <c r="E44" t="n">
+        <v>171289</v>
+      </c>
+      <c r="F44" t="n">
+        <v>515057</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>3</v>
+      </c>
+      <c r="B45" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C45" t="n">
+        <v>49061</v>
+      </c>
+      <c r="D45" t="n">
+        <v>8048</v>
+      </c>
+      <c r="E45" t="n">
+        <v>9562</v>
+      </c>
+      <c r="F45" t="n">
+        <v>12638</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0</v>
+      </c>
+      <c r="B46" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C46" t="n">
+        <v>41725</v>
+      </c>
+      <c r="D46" t="n">
+        <v>13908</v>
+      </c>
+      <c r="E46" t="n">
+        <v>3668</v>
+      </c>
+      <c r="F46" t="n">
+        <v>36843</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1</v>
+      </c>
+      <c r="B47" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C47" t="n">
+        <v>71054</v>
+      </c>
+      <c r="D47" t="n">
+        <v>7225</v>
+      </c>
+      <c r="E47" t="n">
+        <v>247953</v>
+      </c>
+      <c r="F47" t="n">
+        <v>300581</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>2</v>
+      </c>
+      <c r="B48" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C48" t="n">
+        <v>83240</v>
+      </c>
+      <c r="D48" t="n">
+        <v>35690</v>
+      </c>
+      <c r="E48" t="n">
+        <v>137993</v>
+      </c>
+      <c r="F48" t="n">
+        <v>559504</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>3</v>
+      </c>
+      <c r="B49" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C49" t="n">
+        <v>45601</v>
+      </c>
+      <c r="D49" t="n">
+        <v>8066</v>
+      </c>
+      <c r="E49" t="n">
+        <v>7063</v>
+      </c>
+      <c r="F49" t="n">
+        <v>16924</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0</v>
+      </c>
+      <c r="B50" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C50" t="n">
+        <v>44298</v>
+      </c>
+      <c r="D50" t="n">
+        <v>14224</v>
+      </c>
+      <c r="E50" t="n">
+        <v>2606</v>
+      </c>
+      <c r="F50" t="n">
+        <v>37122</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1</v>
+      </c>
+      <c r="B51" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C51" t="n">
+        <v>74710</v>
+      </c>
+      <c r="D51" t="n">
+        <v>9376</v>
+      </c>
+      <c r="E51" t="n">
+        <v>195741</v>
+      </c>
+      <c r="F51" t="n">
+        <v>341139</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>2</v>
+      </c>
+      <c r="B52" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C52" t="n">
+        <v>87520</v>
+      </c>
+      <c r="D52" t="n">
+        <v>41068</v>
+      </c>
+      <c r="E52" t="n">
+        <v>103337</v>
+      </c>
+      <c r="F52" t="n">
+        <v>557272</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>3</v>
+      </c>
+      <c r="B53" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C53" t="n">
+        <v>46918</v>
+      </c>
+      <c r="D53" t="n">
+        <v>8355</v>
+      </c>
+      <c r="E53" t="n">
+        <v>5250</v>
+      </c>
+      <c r="F53" t="n">
+        <v>17583</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0</v>
+      </c>
+      <c r="B54" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C54" t="n">
+        <v>41825</v>
+      </c>
+      <c r="D54" t="n">
+        <v>12970</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1900</v>
+      </c>
+      <c r="F54" t="n">
+        <v>37623</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1</v>
+      </c>
+      <c r="B55" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C55" t="n">
+        <v>74178</v>
+      </c>
+      <c r="D55" t="n">
+        <v>15135</v>
+      </c>
+      <c r="E55" t="n">
+        <v>171282</v>
+      </c>
+      <c r="F55" t="n">
+        <v>378194</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>2</v>
+      </c>
+      <c r="B56" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C56" t="n">
+        <v>87989</v>
+      </c>
+      <c r="D56" t="n">
+        <v>41555</v>
+      </c>
+      <c r="E56" t="n">
+        <v>83711</v>
+      </c>
+      <c r="F56" t="n">
+        <v>608545</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>3</v>
+      </c>
+      <c r="B57" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C57" t="n">
+        <v>45570</v>
+      </c>
+      <c r="D57" t="n">
+        <v>7550</v>
+      </c>
+      <c r="E57" t="n">
+        <v>3783</v>
+      </c>
+      <c r="F57" t="n">
+        <v>19361</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>curso</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ano</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pub_pre</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pub_ead</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>priv_pre</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>priv_ead</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2009</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3832</v>
+      </c>
+      <c r="D2" t="n">
+        <v>428</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5446</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2009</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7234</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E3" t="n">
+        <v>74978</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2009</v>
+      </c>
+      <c r="C4" t="n">
+        <v>13128</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5991</v>
+      </c>
+      <c r="E4" t="n">
+        <v>30847</v>
+      </c>
+      <c r="F4" t="n">
+        <v>54745</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2009</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3107</v>
+      </c>
+      <c r="D5" t="n">
+        <v>111</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5982</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4199</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4837</v>
+      </c>
+      <c r="D6" t="n">
+        <v>911</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4219</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C7" t="n">
+        <v>9917</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1690</v>
+      </c>
+      <c r="E7" t="n">
+        <v>102761</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6732</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C8" t="n">
+        <v>13971</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4370</v>
+      </c>
+      <c r="E8" t="n">
+        <v>44629</v>
+      </c>
+      <c r="F8" t="n">
+        <v>44838</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5384</v>
+      </c>
+      <c r="D9" t="n">
+        <v>305</v>
+      </c>
+      <c r="E9" t="n">
+        <v>8438</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2011</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4701</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1948</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3813</v>
+      </c>
+      <c r="F10" t="n">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2011</v>
+      </c>
+      <c r="C11" t="n">
+        <v>10673</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4411</v>
+      </c>
+      <c r="E11" t="n">
+        <v>101604</v>
+      </c>
+      <c r="F11" t="n">
+        <v>9648</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2011</v>
+      </c>
+      <c r="C12" t="n">
+        <v>17927</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3657</v>
+      </c>
+      <c r="E12" t="n">
+        <v>44211</v>
+      </c>
+      <c r="F12" t="n">
+        <v>54046</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2011</v>
+      </c>
+      <c r="C13" t="n">
+        <v>5823</v>
+      </c>
+      <c r="D13" t="n">
+        <v>452</v>
+      </c>
+      <c r="E13" t="n">
+        <v>7690</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2012</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3957</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1306</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3226</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2012</v>
+      </c>
+      <c r="C15" t="n">
+        <v>11311</v>
+      </c>
+      <c r="D15" t="n">
+        <v>5477</v>
+      </c>
+      <c r="E15" t="n">
+        <v>99973</v>
+      </c>
+      <c r="F15" t="n">
+        <v>17266</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2012</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14786</v>
+      </c>
+      <c r="D16" t="n">
+        <v>5855</v>
+      </c>
+      <c r="E16" t="n">
+        <v>41949</v>
+      </c>
+      <c r="F16" t="n">
+        <v>49547</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2012</v>
+      </c>
+      <c r="C17" t="n">
+        <v>5895</v>
+      </c>
+      <c r="D17" t="n">
+        <v>643</v>
+      </c>
+      <c r="E17" t="n">
+        <v>6116</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2013</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3889</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1208</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2711</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2013</v>
+      </c>
+      <c r="C19" t="n">
+        <v>11630</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1722</v>
+      </c>
+      <c r="E19" t="n">
+        <v>86455</v>
+      </c>
+      <c r="F19" t="n">
+        <v>16381</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2013</v>
+      </c>
+      <c r="C20" t="n">
+        <v>14341</v>
+      </c>
+      <c r="D20" t="n">
+        <v>4592</v>
+      </c>
+      <c r="E20" t="n">
+        <v>40848</v>
+      </c>
+      <c r="F20" t="n">
+        <v>36230</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>3</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2013</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5522</v>
+      </c>
+      <c r="D21" t="n">
+        <v>655</v>
+      </c>
+      <c r="E21" t="n">
+        <v>5419</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2014</v>
+      </c>
+      <c r="C22" t="n">
+        <v>4991</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1031</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2225</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2014</v>
+      </c>
+      <c r="C23" t="n">
+        <v>11677</v>
+      </c>
+      <c r="D23" t="n">
+        <v>570</v>
+      </c>
+      <c r="E23" t="n">
+        <v>82299</v>
+      </c>
+      <c r="F23" t="n">
+        <v>17639</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2014</v>
+      </c>
+      <c r="C24" t="n">
+        <v>19439</v>
+      </c>
+      <c r="D24" t="n">
+        <v>5270</v>
+      </c>
+      <c r="E24" t="n">
+        <v>36607</v>
+      </c>
+      <c r="F24" t="n">
+        <v>44666</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>3</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2014</v>
+      </c>
+      <c r="C25" t="n">
+        <v>6442</v>
+      </c>
+      <c r="D25" t="n">
+        <v>510</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4056</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2015</v>
+      </c>
+      <c r="C26" t="n">
+        <v>5381</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1419</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2626</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2015</v>
+      </c>
+      <c r="C27" t="n">
+        <v>11235</v>
+      </c>
+      <c r="D27" t="n">
+        <v>509</v>
+      </c>
+      <c r="E27" t="n">
+        <v>87981</v>
+      </c>
+      <c r="F27" t="n">
+        <v>25261</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2015</v>
+      </c>
+      <c r="C28" t="n">
+        <v>18097</v>
+      </c>
+      <c r="D28" t="n">
+        <v>4932</v>
+      </c>
+      <c r="E28" t="n">
+        <v>44134</v>
+      </c>
+      <c r="F28" t="n">
+        <v>55672</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2015</v>
+      </c>
+      <c r="C29" t="n">
+        <v>6497</v>
+      </c>
+      <c r="D29" t="n">
+        <v>411</v>
+      </c>
+      <c r="E29" t="n">
+        <v>5014</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C30" t="n">
+        <v>4676</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1084</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2113</v>
+      </c>
+      <c r="F30" t="n">
+        <v>3046</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C31" t="n">
+        <v>10822</v>
+      </c>
+      <c r="D31" t="n">
+        <v>554</v>
+      </c>
+      <c r="E31" t="n">
+        <v>82683</v>
+      </c>
+      <c r="F31" t="n">
+        <v>24245</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>2</v>
+      </c>
+      <c r="B32" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C32" t="n">
+        <v>18399</v>
+      </c>
+      <c r="D32" t="n">
+        <v>3948</v>
+      </c>
+      <c r="E32" t="n">
+        <v>44186</v>
+      </c>
+      <c r="F32" t="n">
+        <v>58566</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>3</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C33" t="n">
+        <v>6294</v>
+      </c>
+      <c r="D33" t="n">
+        <v>806</v>
+      </c>
+      <c r="E33" t="n">
+        <v>3526</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0</v>
+      </c>
+      <c r="B34" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C34" t="n">
+        <v>5165</v>
+      </c>
+      <c r="D34" t="n">
+        <v>681</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1867</v>
+      </c>
+      <c r="F34" t="n">
+        <v>3017</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C35" t="n">
+        <v>10582</v>
+      </c>
+      <c r="D35" t="n">
+        <v>501</v>
+      </c>
+      <c r="E35" t="n">
+        <v>75407</v>
+      </c>
+      <c r="F35" t="n">
+        <v>25811</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>2</v>
+      </c>
+      <c r="B36" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C36" t="n">
+        <v>15507</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3238</v>
+      </c>
+      <c r="E36" t="n">
+        <v>43282</v>
+      </c>
+      <c r="F36" t="n">
+        <v>64087</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>3</v>
+      </c>
+      <c r="B37" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C37" t="n">
+        <v>6563</v>
+      </c>
+      <c r="D37" t="n">
+        <v>661</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3518</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0</v>
+      </c>
+      <c r="B38" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C38" t="n">
+        <v>4786</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1072</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1529</v>
+      </c>
+      <c r="F38" t="n">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1</v>
+      </c>
+      <c r="B39" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C39" t="n">
+        <v>10183</v>
+      </c>
+      <c r="D39" t="n">
+        <v>523</v>
+      </c>
+      <c r="E39" t="n">
+        <v>68448</v>
+      </c>
+      <c r="F39" t="n">
+        <v>24188</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>2</v>
+      </c>
+      <c r="B40" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C40" t="n">
+        <v>15601</v>
+      </c>
+      <c r="D40" t="n">
+        <v>4431</v>
+      </c>
+      <c r="E40" t="n">
+        <v>36945</v>
+      </c>
+      <c r="F40" t="n">
+        <v>65501</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>3</v>
+      </c>
+      <c r="B41" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C41" t="n">
+        <v>5946</v>
+      </c>
+      <c r="D41" t="n">
+        <v>957</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2943</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0</v>
+      </c>
+      <c r="B42" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C42" t="n">
+        <v>4348</v>
+      </c>
+      <c r="D42" t="n">
+        <v>563</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1194</v>
+      </c>
+      <c r="F42" t="n">
+        <v>4565</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C43" t="n">
+        <v>10256</v>
+      </c>
+      <c r="D43" t="n">
+        <v>349</v>
+      </c>
+      <c r="E43" t="n">
+        <v>55704</v>
+      </c>
+      <c r="F43" t="n">
+        <v>25628</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>2</v>
+      </c>
+      <c r="B44" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C44" t="n">
+        <v>14571</v>
+      </c>
+      <c r="D44" t="n">
+        <v>3190</v>
+      </c>
+      <c r="E44" t="n">
+        <v>32668</v>
+      </c>
+      <c r="F44" t="n">
+        <v>73980</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>3</v>
+      </c>
+      <c r="B45" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C45" t="n">
+        <v>6428</v>
+      </c>
+      <c r="D45" t="n">
+        <v>384</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2239</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0</v>
+      </c>
+      <c r="B46" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C46" t="n">
+        <v>3549</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1270</v>
+      </c>
+      <c r="E46" t="n">
+        <v>942</v>
+      </c>
+      <c r="F46" t="n">
+        <v>5935</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1</v>
+      </c>
+      <c r="B47" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C47" t="n">
+        <v>7805</v>
+      </c>
+      <c r="D47" t="n">
+        <v>361</v>
+      </c>
+      <c r="E47" t="n">
+        <v>52158</v>
+      </c>
+      <c r="F47" t="n">
+        <v>30647</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>2</v>
+      </c>
+      <c r="B48" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C48" t="n">
+        <v>9671</v>
+      </c>
+      <c r="D48" t="n">
+        <v>3359</v>
+      </c>
+      <c r="E48" t="n">
+        <v>31591</v>
+      </c>
+      <c r="F48" t="n">
+        <v>91412</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>3</v>
+      </c>
+      <c r="B49" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C49" t="n">
+        <v>4450</v>
+      </c>
+      <c r="D49" t="n">
+        <v>808</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1850</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0</v>
+      </c>
+      <c r="B50" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C50" t="n">
+        <v>4095</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1207</v>
+      </c>
+      <c r="E50" t="n">
+        <v>834</v>
+      </c>
+      <c r="F50" t="n">
+        <v>7004</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1</v>
+      </c>
+      <c r="B51" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C51" t="n">
+        <v>7723</v>
+      </c>
+      <c r="D51" t="n">
+        <v>763</v>
+      </c>
+      <c r="E51" t="n">
+        <v>43056</v>
+      </c>
+      <c r="F51" t="n">
+        <v>33885</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>2</v>
+      </c>
+      <c r="B52" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C52" t="n">
+        <v>10695</v>
+      </c>
+      <c r="D52" t="n">
+        <v>6285</v>
+      </c>
+      <c r="E52" t="n">
+        <v>29503</v>
+      </c>
+      <c r="F52" t="n">
+        <v>118944</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>3</v>
+      </c>
+      <c r="B53" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C53" t="n">
+        <v>5037</v>
+      </c>
+      <c r="D53" t="n">
+        <v>811</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1553</v>
+      </c>
+      <c r="F53" t="n">
+        <v>3215</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0</v>
+      </c>
+      <c r="B54" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C54" t="n">
+        <v>4484</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1243</v>
+      </c>
+      <c r="E54" t="n">
+        <v>487</v>
+      </c>
+      <c r="F54" t="n">
+        <v>5299</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1</v>
+      </c>
+      <c r="B55" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C55" t="n">
+        <v>8703</v>
+      </c>
+      <c r="D55" t="n">
+        <v>844</v>
+      </c>
+      <c r="E55" t="n">
+        <v>38058</v>
+      </c>
+      <c r="F55" t="n">
+        <v>32144</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>2</v>
+      </c>
+      <c r="B56" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C56" t="n">
+        <v>12856</v>
+      </c>
+      <c r="D56" t="n">
+        <v>6260</v>
+      </c>
+      <c r="E56" t="n">
+        <v>24105</v>
+      </c>
+      <c r="F56" t="n">
+        <v>108386</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>3</v>
+      </c>
+      <c r="B57" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C57" t="n">
+        <v>6044</v>
+      </c>
+      <c r="D57" t="n">
+        <v>607</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1043</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2414</v>
       </c>
     </row>
   </sheetData>
